--- a/OPOR - Documents.xlt.xlsx
+++ b/OPOR - Documents.xlt.xlsx
@@ -1928,7 +1928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>C0000118</t>
+          <t>C0000121</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -3733,10 +3733,62 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C0000184</t>
+          <t>C0000712</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
+        <is>
+          <t>SPECIAL ORDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dDocument_Items</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>20240319</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20240319</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C0000712</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>SPECIAL ORDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dDocument_Items</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>20240319</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20240319</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C0000712</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>SPECIAL ORDER</t>
         </is>

--- a/OPOR - Documents.xlt.xlsx
+++ b/OPOR - Documents.xlt.xlsx
@@ -1928,7 +1928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FS6"/>
+  <dimension ref="A1:FS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -3700,95 +3700,17 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20240319</v>
+        <v>20240424</v>
       </c>
       <c r="G3" t="n">
-        <v>20240319</v>
+        <v>20240424</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>C0000121</t>
+          <t>C0000349</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
-        <is>
-          <t>SPECIAL ORDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dDocument_Items</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>20240319</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20240319</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>C0000712</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>SPECIAL ORDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dDocument_Items</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>20240319</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20240319</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>C0000712</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>SPECIAL ORDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>dDocument_Items</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>20240319</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20240319</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>C0000712</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>SPECIAL ORDER</t>
         </is>
